--- a/SampleData/WeatherCalendar.xlsx
+++ b/SampleData/WeatherCalendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFurugen\Documents\MyApps\Reveal-Samples\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466684C-CEF8-4198-B48E-98B68CFC04BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE83E2-00A1-4036-8130-B5FC2D181C70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16185" yWindow="2850" windowWidth="16290" windowHeight="9030" xr2:uid="{503295CE-6697-4394-A4A6-49D3C5D08074}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{503295CE-6697-4394-A4A6-49D3C5D08074}"/>
   </bookViews>
   <sheets>
     <sheet name="お天気カレンダー" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="7">
   <si>
     <t>天気</t>
     <rPh sb="0" eb="2">
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>雨</t>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晴れ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F88CDF-F846-4E6A-A207-3E0FF10592C4}">
-  <dimension ref="A1:B1083"/>
+  <dimension ref="A1:B1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A1072" workbookViewId="0">
+      <selection activeCell="G1084" sqref="G1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9108,9 +9116,114 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1084" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1085" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1086" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1087" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1088" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1089" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1090" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1091" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1092" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1093" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1094" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1095" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1096" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
